--- a/data/tables_gold/gold.sih_by_region.xlsx
+++ b/data/tables_gold/gold.sih_by_region.xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>avoidable_disease_hosp</t>
+          <t>total_icsap</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>tx_avoidable_disease</t>
+          <t>rate_icsap</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -471,17 +471,17 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>avoidable_disease_cost</t>
+          <t>icsap_cost</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>avg_avoidable_disease_cost</t>
+          <t>avg_icsap_cost</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>tx_avoidable_disease_cost</t>
+          <t>rate_icsap_cost</t>
         </is>
       </c>
     </row>
@@ -495,28 +495,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>885775</v>
+        <v>764047</v>
       </c>
       <c r="D2" t="n">
-        <v>83153</v>
+        <v>83152</v>
       </c>
       <c r="E2" t="n">
-        <v>9.390000000000001</v>
+        <v>10.88</v>
       </c>
       <c r="F2" t="n">
-        <v>924632362</v>
+        <v>849930500</v>
       </c>
       <c r="G2" t="n">
-        <v>1043.87</v>
+        <v>1112.41</v>
       </c>
       <c r="H2" t="n">
-        <v>52251123.54</v>
+        <v>52248567.28</v>
       </c>
       <c r="I2" t="n">
-        <v>58.99</v>
+        <v>68.38</v>
       </c>
       <c r="J2" t="n">
-        <v>5.65</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="3">
@@ -529,28 +529,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3108891</v>
+        <v>2626799</v>
       </c>
       <c r="D3" t="n">
-        <v>331955</v>
+        <v>331950</v>
       </c>
       <c r="E3" t="n">
-        <v>10.68</v>
+        <v>12.64</v>
       </c>
       <c r="F3" t="n">
-        <v>3073249852</v>
+        <v>2795926465</v>
       </c>
       <c r="G3" t="n">
-        <v>988.54</v>
+        <v>1064.39</v>
       </c>
       <c r="H3" t="n">
-        <v>201512780.98</v>
+        <v>201500807.54</v>
       </c>
       <c r="I3" t="n">
-        <v>64.81999999999999</v>
+        <v>76.70999999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>6.56</v>
+        <v>7.21</v>
       </c>
     </row>
     <row r="4">
@@ -563,28 +563,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>981546</v>
+        <v>807185</v>
       </c>
       <c r="D4" t="n">
         <v>122244</v>
       </c>
       <c r="E4" t="n">
-        <v>12.45</v>
+        <v>15.14</v>
       </c>
       <c r="F4" t="n">
-        <v>711435980</v>
+        <v>608446389</v>
       </c>
       <c r="G4" t="n">
-        <v>724.8099999999999</v>
+        <v>753.79</v>
       </c>
       <c r="H4" t="n">
         <v>63120199.83</v>
       </c>
       <c r="I4" t="n">
-        <v>64.31</v>
+        <v>78.2</v>
       </c>
       <c r="J4" t="n">
-        <v>8.869999999999999</v>
+        <v>10.37</v>
       </c>
     </row>
     <row r="5">
@@ -597,28 +597,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4647664</v>
+        <v>4129682</v>
       </c>
       <c r="D5" t="n">
-        <v>384299</v>
+        <v>384293</v>
       </c>
       <c r="E5" t="n">
-        <v>8.27</v>
+        <v>9.31</v>
       </c>
       <c r="F5" t="n">
-        <v>5945923578</v>
+        <v>5623262235</v>
       </c>
       <c r="G5" t="n">
-        <v>1279.34</v>
+        <v>1361.67</v>
       </c>
       <c r="H5" t="n">
-        <v>287190381.1</v>
+        <v>287175447.47</v>
       </c>
       <c r="I5" t="n">
-        <v>61.79</v>
+        <v>69.54000000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>4.83</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="6">
@@ -631,28 +631,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1979624</v>
+        <v>1780117</v>
       </c>
       <c r="D6" t="n">
-        <v>146422</v>
+        <v>146421</v>
       </c>
       <c r="E6" t="n">
-        <v>7.4</v>
+        <v>8.23</v>
       </c>
       <c r="F6" t="n">
-        <v>2715165854</v>
+        <v>2589375688</v>
       </c>
       <c r="G6" t="n">
-        <v>1371.56</v>
+        <v>1454.61</v>
       </c>
       <c r="H6" t="n">
-        <v>109279236.29</v>
+        <v>109276680.03</v>
       </c>
       <c r="I6" t="n">
-        <v>55.2</v>
+        <v>61.39</v>
       </c>
       <c r="J6" t="n">
-        <v>4.02</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="7">
@@ -665,28 +665,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>887891</v>
+        <v>763394</v>
       </c>
       <c r="D7" t="n">
         <v>79014</v>
       </c>
       <c r="E7" t="n">
-        <v>8.9</v>
+        <v>10.35</v>
       </c>
       <c r="F7" t="n">
-        <v>958135057</v>
+        <v>881960081</v>
       </c>
       <c r="G7" t="n">
-        <v>1079.11</v>
+        <v>1155.31</v>
       </c>
       <c r="H7" t="n">
         <v>54025394.94</v>
       </c>
       <c r="I7" t="n">
-        <v>60.85</v>
+        <v>70.77</v>
       </c>
       <c r="J7" t="n">
-        <v>5.64</v>
+        <v>6.13</v>
       </c>
     </row>
     <row r="8">
@@ -699,28 +699,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3122201</v>
+        <v>2626904</v>
       </c>
       <c r="D8" t="n">
-        <v>319407</v>
+        <v>319404</v>
       </c>
       <c r="E8" t="n">
-        <v>10.23</v>
+        <v>12.16</v>
       </c>
       <c r="F8" t="n">
-        <v>3190978440</v>
+        <v>2906092232</v>
       </c>
       <c r="G8" t="n">
-        <v>1022.03</v>
+        <v>1106.28</v>
       </c>
       <c r="H8" t="n">
-        <v>197948786.89</v>
+        <v>197941365.49</v>
       </c>
       <c r="I8" t="n">
-        <v>63.4</v>
+        <v>75.34999999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>6.2</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="9">
@@ -733,28 +733,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>953132</v>
+        <v>772208</v>
       </c>
       <c r="D9" t="n">
         <v>106989</v>
       </c>
       <c r="E9" t="n">
-        <v>11.22</v>
+        <v>13.85</v>
       </c>
       <c r="F9" t="n">
-        <v>753518396</v>
+        <v>645657010</v>
       </c>
       <c r="G9" t="n">
-        <v>790.5700000000001</v>
+        <v>836.12</v>
       </c>
       <c r="H9" t="n">
         <v>57664510.41</v>
       </c>
       <c r="I9" t="n">
-        <v>60.5</v>
+        <v>74.67</v>
       </c>
       <c r="J9" t="n">
-        <v>7.65</v>
+        <v>8.93</v>
       </c>
     </row>
     <row r="10">
@@ -767,28 +767,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4659185</v>
+        <v>4123653</v>
       </c>
       <c r="D10" t="n">
-        <v>378598</v>
+        <v>378576</v>
       </c>
       <c r="E10" t="n">
-        <v>8.130000000000001</v>
+        <v>9.18</v>
       </c>
       <c r="F10" t="n">
-        <v>6042134750</v>
+        <v>5706120369</v>
       </c>
       <c r="G10" t="n">
-        <v>1296.82</v>
+        <v>1383.75</v>
       </c>
       <c r="H10" t="n">
-        <v>299514572.76</v>
+        <v>299465648.87</v>
       </c>
       <c r="I10" t="n">
-        <v>64.28</v>
+        <v>72.62</v>
       </c>
       <c r="J10" t="n">
-        <v>4.96</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="11">
@@ -801,28 +801,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2004968</v>
+        <v>1800644</v>
       </c>
       <c r="D11" t="n">
-        <v>146087</v>
+        <v>146084</v>
       </c>
       <c r="E11" t="n">
-        <v>7.29</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>2843216198</v>
+        <v>2713970411</v>
       </c>
       <c r="G11" t="n">
-        <v>1418.09</v>
+        <v>1507.22</v>
       </c>
       <c r="H11" t="n">
-        <v>115129230.97</v>
+        <v>115121644.65</v>
       </c>
       <c r="I11" t="n">
-        <v>57.42</v>
+        <v>63.93</v>
       </c>
       <c r="J11" t="n">
-        <v>4.05</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="12">
@@ -835,28 +835,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>956279</v>
+        <v>765731</v>
       </c>
       <c r="D12" t="n">
-        <v>85130</v>
+        <v>78348</v>
       </c>
       <c r="E12" t="n">
-        <v>8.9</v>
+        <v>10.23</v>
       </c>
       <c r="F12" t="n">
-        <v>1065294394</v>
+        <v>912071642</v>
       </c>
       <c r="G12" t="n">
-        <v>1114</v>
+        <v>1191.11</v>
       </c>
       <c r="H12" t="n">
-        <v>60093904.53</v>
+        <v>55383666.17</v>
       </c>
       <c r="I12" t="n">
-        <v>62.84</v>
+        <v>72.33</v>
       </c>
       <c r="J12" t="n">
-        <v>5.64</v>
+        <v>6.07</v>
       </c>
     </row>
     <row r="13">
@@ -869,28 +869,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3319449</v>
+        <v>2611437</v>
       </c>
       <c r="D13" t="n">
-        <v>324959</v>
+        <v>301310</v>
       </c>
       <c r="E13" t="n">
-        <v>9.789999999999999</v>
+        <v>11.54</v>
       </c>
       <c r="F13" t="n">
-        <v>3534665196</v>
+        <v>3001343000</v>
       </c>
       <c r="G13" t="n">
-        <v>1064.83</v>
+        <v>1149.31</v>
       </c>
       <c r="H13" t="n">
-        <v>211313249.71</v>
+        <v>195918690.09</v>
       </c>
       <c r="I13" t="n">
-        <v>63.66</v>
+        <v>75.02</v>
       </c>
       <c r="J13" t="n">
-        <v>5.98</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="14">
@@ -903,28 +903,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1020073</v>
+        <v>770235</v>
       </c>
       <c r="D14" t="n">
-        <v>115871</v>
+        <v>107040</v>
       </c>
       <c r="E14" t="n">
-        <v>11.36</v>
+        <v>13.9</v>
       </c>
       <c r="F14" t="n">
-        <v>833434458</v>
+        <v>664949826</v>
       </c>
       <c r="G14" t="n">
-        <v>817.03</v>
+        <v>863.3099999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>66615825.41</v>
+        <v>61618779.36</v>
       </c>
       <c r="I14" t="n">
-        <v>65.3</v>
+        <v>80</v>
       </c>
       <c r="J14" t="n">
-        <v>7.99</v>
+        <v>9.27</v>
       </c>
     </row>
     <row r="15">
@@ -937,28 +937,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4765528</v>
+        <v>4087896</v>
       </c>
       <c r="D15" t="n">
-        <v>393086</v>
+        <v>376472</v>
       </c>
       <c r="E15" t="n">
-        <v>8.25</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>6279876800</v>
+        <v>5733008905</v>
       </c>
       <c r="G15" t="n">
-        <v>1317.77</v>
+        <v>1402.44</v>
       </c>
       <c r="H15" t="n">
-        <v>326198969.63</v>
+        <v>312132618.61</v>
       </c>
       <c r="I15" t="n">
-        <v>68.45</v>
+        <v>76.36</v>
       </c>
       <c r="J15" t="n">
-        <v>5.19</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="16">
@@ -971,28 +971,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2203308</v>
+        <v>1845547</v>
       </c>
       <c r="D16" t="n">
-        <v>160267</v>
+        <v>147847</v>
       </c>
       <c r="E16" t="n">
-        <v>7.27</v>
+        <v>8.01</v>
       </c>
       <c r="F16" t="n">
-        <v>3177738505</v>
+        <v>2817122456</v>
       </c>
       <c r="G16" t="n">
-        <v>1442.26</v>
+        <v>1526.44</v>
       </c>
       <c r="H16" t="n">
-        <v>131515956.15</v>
+        <v>120948712.18</v>
       </c>
       <c r="I16" t="n">
-        <v>59.69</v>
+        <v>65.54000000000001</v>
       </c>
       <c r="J16" t="n">
-        <v>4.14</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="17">
@@ -1005,28 +1005,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>966733</v>
+        <v>778884</v>
       </c>
       <c r="D17" t="n">
-        <v>83649</v>
+        <v>76692</v>
       </c>
       <c r="E17" t="n">
-        <v>8.65</v>
+        <v>9.85</v>
       </c>
       <c r="F17" t="n">
-        <v>1085232877</v>
+        <v>931339012</v>
       </c>
       <c r="G17" t="n">
-        <v>1122.58</v>
+        <v>1195.74</v>
       </c>
       <c r="H17" t="n">
-        <v>60614616.1</v>
+        <v>55639772.14</v>
       </c>
       <c r="I17" t="n">
-        <v>62.7</v>
+        <v>71.44</v>
       </c>
       <c r="J17" t="n">
-        <v>5.59</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="18">
@@ -1039,28 +1039,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3365735</v>
+        <v>2657070</v>
       </c>
       <c r="D18" t="n">
-        <v>331173</v>
+        <v>304782</v>
       </c>
       <c r="E18" t="n">
-        <v>9.84</v>
+        <v>11.47</v>
       </c>
       <c r="F18" t="n">
-        <v>3680002437</v>
+        <v>3139978165</v>
       </c>
       <c r="G18" t="n">
-        <v>1093.37</v>
+        <v>1181.74</v>
       </c>
       <c r="H18" t="n">
-        <v>227053232.56</v>
+        <v>209809126.06</v>
       </c>
       <c r="I18" t="n">
-        <v>67.45999999999999</v>
+        <v>78.95999999999999</v>
       </c>
       <c r="J18" t="n">
-        <v>6.17</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="19">
@@ -1073,28 +1073,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1038272</v>
+        <v>800084</v>
       </c>
       <c r="D19" t="n">
-        <v>115530</v>
+        <v>107066</v>
       </c>
       <c r="E19" t="n">
-        <v>11.13</v>
+        <v>13.38</v>
       </c>
       <c r="F19" t="n">
-        <v>869183149</v>
+        <v>709318441</v>
       </c>
       <c r="G19" t="n">
-        <v>837.14</v>
+        <v>886.55</v>
       </c>
       <c r="H19" t="n">
-        <v>66674468.54</v>
+        <v>61915703.5</v>
       </c>
       <c r="I19" t="n">
-        <v>64.22</v>
+        <v>77.39</v>
       </c>
       <c r="J19" t="n">
-        <v>7.67</v>
+        <v>8.73</v>
       </c>
     </row>
     <row r="20">
@@ -1107,28 +1107,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5020252</v>
+        <v>4129193</v>
       </c>
       <c r="D20" t="n">
-        <v>403274</v>
+        <v>371075</v>
       </c>
       <c r="E20" t="n">
-        <v>8.029999999999999</v>
+        <v>8.99</v>
       </c>
       <c r="F20" t="n">
-        <v>6768571615</v>
+        <v>5927700987</v>
       </c>
       <c r="G20" t="n">
-        <v>1348.25</v>
+        <v>1435.56</v>
       </c>
       <c r="H20" t="n">
-        <v>347694648.11</v>
+        <v>321036113.73</v>
       </c>
       <c r="I20" t="n">
-        <v>69.26000000000001</v>
+        <v>77.75</v>
       </c>
       <c r="J20" t="n">
-        <v>5.14</v>
+        <v>5.42</v>
       </c>
     </row>
     <row r="21">
@@ -1141,28 +1141,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2240421</v>
+        <v>1897816</v>
       </c>
       <c r="D21" t="n">
-        <v>161604</v>
+        <v>149223</v>
       </c>
       <c r="E21" t="n">
-        <v>7.21</v>
+        <v>7.86</v>
       </c>
       <c r="F21" t="n">
-        <v>3313991984</v>
+        <v>2955200049</v>
       </c>
       <c r="G21" t="n">
-        <v>1479.18</v>
+        <v>1557.16</v>
       </c>
       <c r="H21" t="n">
-        <v>135582962.47</v>
+        <v>125730967.02</v>
       </c>
       <c r="I21" t="n">
-        <v>60.52</v>
+        <v>66.25</v>
       </c>
       <c r="J21" t="n">
-        <v>4.09</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="22">
@@ -1175,28 +1175,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>905687</v>
+        <v>791209</v>
       </c>
       <c r="D22" t="n">
         <v>77519</v>
       </c>
       <c r="E22" t="n">
-        <v>8.56</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>1032956321</v>
+        <v>962587002</v>
       </c>
       <c r="G22" t="n">
-        <v>1140.52</v>
+        <v>1216.6</v>
       </c>
       <c r="H22" t="n">
         <v>60093526.75</v>
       </c>
       <c r="I22" t="n">
-        <v>66.34999999999999</v>
+        <v>75.95</v>
       </c>
       <c r="J22" t="n">
-        <v>5.82</v>
+        <v>6.24</v>
       </c>
     </row>
     <row r="23">
@@ -1209,28 +1209,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3220433</v>
+        <v>2753410</v>
       </c>
       <c r="D23" t="n">
-        <v>309955</v>
+        <v>309954</v>
       </c>
       <c r="E23" t="n">
-        <v>9.619999999999999</v>
+        <v>11.26</v>
       </c>
       <c r="F23" t="n">
-        <v>3535149755</v>
+        <v>3262966267</v>
       </c>
       <c r="G23" t="n">
-        <v>1097.72</v>
+        <v>1185.06</v>
       </c>
       <c r="H23" t="n">
-        <v>215386545.14</v>
+        <v>215384236.26</v>
       </c>
       <c r="I23" t="n">
-        <v>66.88</v>
+        <v>78.22</v>
       </c>
       <c r="J23" t="n">
-        <v>6.09</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="24">
@@ -1243,28 +1243,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>991929</v>
+        <v>826330</v>
       </c>
       <c r="D24" t="n">
         <v>109691</v>
       </c>
       <c r="E24" t="n">
-        <v>11.06</v>
+        <v>13.27</v>
       </c>
       <c r="F24" t="n">
-        <v>845120457</v>
+        <v>745523241</v>
       </c>
       <c r="G24" t="n">
-        <v>852</v>
+        <v>902.21</v>
       </c>
       <c r="H24" t="n">
         <v>62517889.71</v>
       </c>
       <c r="I24" t="n">
-        <v>63.03</v>
+        <v>75.66</v>
       </c>
       <c r="J24" t="n">
-        <v>7.4</v>
+        <v>8.390000000000001</v>
       </c>
     </row>
     <row r="25">
@@ -1277,28 +1277,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4744405</v>
+        <v>4247951</v>
       </c>
       <c r="D25" t="n">
-        <v>383579</v>
+        <v>383573</v>
       </c>
       <c r="E25" t="n">
-        <v>8.08</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>6453818867</v>
+        <v>6139937798</v>
       </c>
       <c r="G25" t="n">
-        <v>1360.3</v>
+        <v>1445.39</v>
       </c>
       <c r="H25" t="n">
-        <v>341820516.34</v>
+        <v>341805508.62</v>
       </c>
       <c r="I25" t="n">
-        <v>72.05</v>
+        <v>80.45999999999999</v>
       </c>
       <c r="J25" t="n">
-        <v>5.3</v>
+        <v>5.57</v>
       </c>
     </row>
     <row r="26">
@@ -1311,28 +1311,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2115307</v>
+        <v>1946162</v>
       </c>
       <c r="D26" t="n">
-        <v>151230</v>
+        <v>151227</v>
       </c>
       <c r="E26" t="n">
-        <v>7.15</v>
+        <v>7.77</v>
       </c>
       <c r="F26" t="n">
-        <v>3239342808</v>
+        <v>3131176157</v>
       </c>
       <c r="G26" t="n">
-        <v>1531.38</v>
+        <v>1608.9</v>
       </c>
       <c r="H26" t="n">
-        <v>132810717.71</v>
+        <v>132803042.58</v>
       </c>
       <c r="I26" t="n">
-        <v>62.79</v>
+        <v>68.23999999999999</v>
       </c>
       <c r="J26" t="n">
-        <v>4.1</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="27">
@@ -1345,28 +1345,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>955234</v>
+        <v>845852</v>
       </c>
       <c r="D27" t="n">
         <v>82441</v>
       </c>
       <c r="E27" t="n">
-        <v>8.630000000000001</v>
+        <v>9.75</v>
       </c>
       <c r="F27" t="n">
-        <v>1086457561</v>
+        <v>1019555316</v>
       </c>
       <c r="G27" t="n">
-        <v>1137.37</v>
+        <v>1205.36</v>
       </c>
       <c r="H27" t="n">
         <v>68588223.09</v>
       </c>
       <c r="I27" t="n">
-        <v>71.8</v>
+        <v>81.09</v>
       </c>
       <c r="J27" t="n">
-        <v>6.31</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="28">
@@ -1379,28 +1379,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3299229</v>
+        <v>2847211</v>
       </c>
       <c r="D28" t="n">
-        <v>318634</v>
+        <v>318627</v>
       </c>
       <c r="E28" t="n">
-        <v>9.66</v>
+        <v>11.19</v>
       </c>
       <c r="F28" t="n">
-        <v>3701739337</v>
+        <v>3438058849</v>
       </c>
       <c r="G28" t="n">
-        <v>1122</v>
+        <v>1207.52</v>
       </c>
       <c r="H28" t="n">
-        <v>234047044.9</v>
+        <v>234029868.11</v>
       </c>
       <c r="I28" t="n">
-        <v>70.94</v>
+        <v>82.2</v>
       </c>
       <c r="J28" t="n">
-        <v>6.32</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="29">
@@ -1413,28 +1413,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1014569</v>
+        <v>848097</v>
       </c>
       <c r="D29" t="n">
         <v>110486</v>
       </c>
       <c r="E29" t="n">
-        <v>10.89</v>
+        <v>13.03</v>
       </c>
       <c r="F29" t="n">
-        <v>889889122</v>
+        <v>790465108</v>
       </c>
       <c r="G29" t="n">
-        <v>877.11</v>
+        <v>932.05</v>
       </c>
       <c r="H29" t="n">
         <v>66281441.71</v>
       </c>
       <c r="I29" t="n">
-        <v>65.33</v>
+        <v>78.15000000000001</v>
       </c>
       <c r="J29" t="n">
-        <v>7.45</v>
+        <v>8.390000000000001</v>
       </c>
     </row>
     <row r="30">
@@ -1447,28 +1447,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4887283</v>
+        <v>4404239</v>
       </c>
       <c r="D30" t="n">
-        <v>395009</v>
+        <v>395004</v>
       </c>
       <c r="E30" t="n">
-        <v>8.08</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>6753618477</v>
+        <v>6450864897</v>
       </c>
       <c r="G30" t="n">
-        <v>1381.88</v>
+        <v>1464.69</v>
       </c>
       <c r="H30" t="n">
-        <v>361305185.63</v>
+        <v>361292816.63</v>
       </c>
       <c r="I30" t="n">
-        <v>73.93000000000001</v>
+        <v>82.03</v>
       </c>
       <c r="J30" t="n">
-        <v>5.35</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="31">
@@ -1481,28 +1481,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2170850</v>
+        <v>2007277</v>
       </c>
       <c r="D31" t="n">
         <v>157804</v>
       </c>
       <c r="E31" t="n">
-        <v>7.27</v>
+        <v>7.86</v>
       </c>
       <c r="F31" t="n">
-        <v>3384345995</v>
+        <v>3279099784</v>
       </c>
       <c r="G31" t="n">
-        <v>1559</v>
+        <v>1633.61</v>
       </c>
       <c r="H31" t="n">
         <v>143787678.99</v>
       </c>
       <c r="I31" t="n">
-        <v>66.23999999999999</v>
+        <v>71.63</v>
       </c>
       <c r="J31" t="n">
-        <v>4.25</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="32">
@@ -1515,28 +1515,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>848442</v>
+        <v>749530</v>
       </c>
       <c r="D32" t="n">
         <v>60930</v>
       </c>
       <c r="E32" t="n">
-        <v>7.18</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="F32" t="n">
-        <v>1169998613</v>
+        <v>1110013760</v>
       </c>
       <c r="G32" t="n">
-        <v>1379</v>
+        <v>1480.95</v>
       </c>
       <c r="H32" t="n">
         <v>58723224.19</v>
       </c>
       <c r="I32" t="n">
-        <v>69.20999999999999</v>
+        <v>78.34999999999999</v>
       </c>
       <c r="J32" t="n">
-        <v>5.02</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="33">
@@ -1549,28 +1549,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2792308</v>
+        <v>2382220</v>
       </c>
       <c r="D33" t="n">
         <v>234119</v>
       </c>
       <c r="E33" t="n">
-        <v>8.380000000000001</v>
+        <v>9.83</v>
       </c>
       <c r="F33" t="n">
-        <v>3795538123</v>
+        <v>3555352800</v>
       </c>
       <c r="G33" t="n">
-        <v>1359.28</v>
+        <v>1492.45</v>
       </c>
       <c r="H33" t="n">
         <v>190856874.71</v>
       </c>
       <c r="I33" t="n">
-        <v>68.34999999999999</v>
+        <v>80.12</v>
       </c>
       <c r="J33" t="n">
-        <v>5.03</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="34">
@@ -1583,28 +1583,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>908674</v>
+        <v>754734</v>
       </c>
       <c r="D34" t="n">
         <v>82022</v>
       </c>
       <c r="E34" t="n">
-        <v>9.029999999999999</v>
+        <v>10.87</v>
       </c>
       <c r="F34" t="n">
-        <v>965176853</v>
+        <v>873488701</v>
       </c>
       <c r="G34" t="n">
-        <v>1062.18</v>
+        <v>1157.35</v>
       </c>
       <c r="H34" t="n">
         <v>51755155.78</v>
       </c>
       <c r="I34" t="n">
-        <v>56.96</v>
+        <v>68.56999999999999</v>
       </c>
       <c r="J34" t="n">
-        <v>5.36</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="35">
@@ -1617,28 +1617,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4269682</v>
+        <v>3805901</v>
       </c>
       <c r="D35" t="n">
-        <v>318571</v>
+        <v>318560</v>
       </c>
       <c r="E35" t="n">
-        <v>7.46</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>7104092330</v>
+        <v>6810495909</v>
       </c>
       <c r="G35" t="n">
-        <v>1663.85</v>
+        <v>1789.46</v>
       </c>
       <c r="H35" t="n">
-        <v>328222305.49</v>
+        <v>328193794.79</v>
       </c>
       <c r="I35" t="n">
-        <v>76.87</v>
+        <v>86.23</v>
       </c>
       <c r="J35" t="n">
-        <v>4.62</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="36">
@@ -1651,28 +1651,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1843015</v>
+        <v>1689963</v>
       </c>
       <c r="D36" t="n">
-        <v>123133</v>
+        <v>123127</v>
       </c>
       <c r="E36" t="n">
-        <v>6.68</v>
+        <v>7.29</v>
       </c>
       <c r="F36" t="n">
-        <v>3350716428</v>
+        <v>3251370166</v>
       </c>
       <c r="G36" t="n">
-        <v>1818.06</v>
+        <v>1923.93</v>
       </c>
       <c r="H36" t="n">
-        <v>124091742.01</v>
+        <v>124076404.45</v>
       </c>
       <c r="I36" t="n">
-        <v>67.33</v>
+        <v>73.42</v>
       </c>
       <c r="J36" t="n">
-        <v>3.7</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="37">
@@ -1685,28 +1685,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>930392</v>
+        <v>834459</v>
       </c>
       <c r="D37" t="n">
         <v>55912</v>
       </c>
       <c r="E37" t="n">
-        <v>6.01</v>
+        <v>6.7</v>
       </c>
       <c r="F37" t="n">
-        <v>1709111357</v>
+        <v>1650819523</v>
       </c>
       <c r="G37" t="n">
-        <v>1836.98</v>
+        <v>1978.31</v>
       </c>
       <c r="H37" t="n">
         <v>55467681.72</v>
       </c>
       <c r="I37" t="n">
-        <v>59.62</v>
+        <v>66.47</v>
       </c>
       <c r="J37" t="n">
-        <v>3.25</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="38">
@@ -1719,28 +1719,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3106622</v>
+        <v>2703190</v>
       </c>
       <c r="D38" t="n">
-        <v>238399</v>
+        <v>238397</v>
       </c>
       <c r="E38" t="n">
-        <v>7.67</v>
+        <v>8.82</v>
       </c>
       <c r="F38" t="n">
-        <v>5234640585</v>
+        <v>4995840285</v>
       </c>
       <c r="G38" t="n">
-        <v>1684.99</v>
+        <v>1848.13</v>
       </c>
       <c r="H38" t="n">
-        <v>200203216.26</v>
+        <v>200197823.99</v>
       </c>
       <c r="I38" t="n">
-        <v>64.44</v>
+        <v>74.06</v>
       </c>
       <c r="J38" t="n">
-        <v>3.82</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="39">
@@ -1753,28 +1753,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1012924</v>
+        <v>859973</v>
       </c>
       <c r="D39" t="n">
         <v>85900</v>
       </c>
       <c r="E39" t="n">
-        <v>8.48</v>
+        <v>9.99</v>
       </c>
       <c r="F39" t="n">
-        <v>1224761616</v>
+        <v>1133197202</v>
       </c>
       <c r="G39" t="n">
-        <v>1209.13</v>
+        <v>1317.71</v>
       </c>
       <c r="H39" t="n">
         <v>57425426.41</v>
       </c>
       <c r="I39" t="n">
-        <v>56.69</v>
+        <v>66.78</v>
       </c>
       <c r="J39" t="n">
-        <v>4.69</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="40">
@@ -1787,28 +1787,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4599875</v>
+        <v>4155150</v>
       </c>
       <c r="D40" t="n">
-        <v>309047</v>
+        <v>309046</v>
       </c>
       <c r="E40" t="n">
-        <v>6.72</v>
+        <v>7.44</v>
       </c>
       <c r="F40" t="n">
-        <v>9682944825</v>
+        <v>9397890088</v>
       </c>
       <c r="G40" t="n">
-        <v>2105.05</v>
+        <v>2261.75</v>
       </c>
       <c r="H40" t="n">
-        <v>336230472.75</v>
+        <v>336227998.95</v>
       </c>
       <c r="I40" t="n">
-        <v>73.09999999999999</v>
+        <v>80.92</v>
       </c>
       <c r="J40" t="n">
-        <v>3.47</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="41">
@@ -1821,28 +1821,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1949499</v>
+        <v>1796768</v>
       </c>
       <c r="D41" t="n">
-        <v>112042</v>
+        <v>112040</v>
       </c>
       <c r="E41" t="n">
-        <v>5.75</v>
+        <v>6.24</v>
       </c>
       <c r="F41" t="n">
-        <v>4522211607</v>
+        <v>4421170593</v>
       </c>
       <c r="G41" t="n">
-        <v>2319.68</v>
+        <v>2460.62</v>
       </c>
       <c r="H41" t="n">
-        <v>118574221.82</v>
+        <v>118569109.3</v>
       </c>
       <c r="I41" t="n">
-        <v>60.82</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="J41" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="42">
@@ -1855,28 +1855,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1002450</v>
+        <v>909398</v>
       </c>
       <c r="D42" t="n">
         <v>71473</v>
       </c>
       <c r="E42" t="n">
-        <v>7.13</v>
+        <v>7.86</v>
       </c>
       <c r="F42" t="n">
-        <v>1356937115</v>
+        <v>1299626602</v>
       </c>
       <c r="G42" t="n">
-        <v>1353.62</v>
+        <v>1429.11</v>
       </c>
       <c r="H42" t="n">
         <v>78125848.63</v>
       </c>
       <c r="I42" t="n">
-        <v>77.93000000000001</v>
+        <v>85.91</v>
       </c>
       <c r="J42" t="n">
-        <v>5.76</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="43">
@@ -1889,28 +1889,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3315516</v>
+        <v>2954273</v>
       </c>
       <c r="D43" t="n">
-        <v>291951</v>
+        <v>291949</v>
       </c>
       <c r="E43" t="n">
-        <v>8.81</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="F43" t="n">
-        <v>4451545468</v>
+        <v>4237143387</v>
       </c>
       <c r="G43" t="n">
-        <v>1342.64</v>
+        <v>1434.24</v>
       </c>
       <c r="H43" t="n">
-        <v>273051119.91</v>
+        <v>273046007.39</v>
       </c>
       <c r="I43" t="n">
-        <v>82.36</v>
+        <v>92.42</v>
       </c>
       <c r="J43" t="n">
-        <v>6.13</v>
+        <v>6.44</v>
       </c>
     </row>
     <row r="44">
@@ -1923,28 +1923,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1054522</v>
+        <v>916493</v>
       </c>
       <c r="D44" t="n">
         <v>100474</v>
       </c>
       <c r="E44" t="n">
-        <v>9.529999999999999</v>
+        <v>10.96</v>
       </c>
       <c r="F44" t="n">
-        <v>1130250911</v>
+        <v>1047103145</v>
       </c>
       <c r="G44" t="n">
-        <v>1071.81</v>
+        <v>1142.51</v>
       </c>
       <c r="H44" t="n">
         <v>78268856.36</v>
       </c>
       <c r="I44" t="n">
-        <v>74.22</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="J44" t="n">
-        <v>6.92</v>
+        <v>7.47</v>
       </c>
     </row>
     <row r="45">
@@ -1957,28 +1957,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4933999</v>
+        <v>4511124</v>
       </c>
       <c r="D45" t="n">
-        <v>381489</v>
+        <v>381486</v>
       </c>
       <c r="E45" t="n">
-        <v>7.73</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="F45" t="n">
-        <v>8236907628</v>
+        <v>7963705563</v>
       </c>
       <c r="G45" t="n">
-        <v>1669.42</v>
+        <v>1765.35</v>
       </c>
       <c r="H45" t="n">
-        <v>477201493.01</v>
+        <v>477193747.94</v>
       </c>
       <c r="I45" t="n">
-        <v>96.72</v>
+        <v>105.78</v>
       </c>
       <c r="J45" t="n">
-        <v>5.79</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="46">
@@ -1991,28 +1991,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2176611</v>
+        <v>2022650</v>
       </c>
       <c r="D46" t="n">
         <v>143354</v>
       </c>
       <c r="E46" t="n">
-        <v>6.59</v>
+        <v>7.09</v>
       </c>
       <c r="F46" t="n">
-        <v>3899801410</v>
+        <v>3797034537</v>
       </c>
       <c r="G46" t="n">
-        <v>1791.69</v>
+        <v>1877.26</v>
       </c>
       <c r="H46" t="n">
         <v>169115741.87</v>
       </c>
       <c r="I46" t="n">
-        <v>77.7</v>
+        <v>83.61</v>
       </c>
       <c r="J46" t="n">
-        <v>4.34</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="47">
@@ -2025,28 +2025,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1096585</v>
+        <v>1004742</v>
       </c>
       <c r="D47" t="n">
         <v>78859</v>
       </c>
       <c r="E47" t="n">
-        <v>7.19</v>
+        <v>7.85</v>
       </c>
       <c r="F47" t="n">
-        <v>1517534336</v>
+        <v>1460303321</v>
       </c>
       <c r="G47" t="n">
-        <v>1383.87</v>
+        <v>1453.41</v>
       </c>
       <c r="H47" t="n">
         <v>88528199.78</v>
       </c>
       <c r="I47" t="n">
-        <v>80.73</v>
+        <v>88.11</v>
       </c>
       <c r="J47" t="n">
-        <v>5.83</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="48">
@@ -2059,28 +2059,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3496953</v>
+        <v>3152170</v>
       </c>
       <c r="D48" t="n">
-        <v>302582</v>
+        <v>302580</v>
       </c>
       <c r="E48" t="n">
-        <v>8.65</v>
+        <v>9.6</v>
       </c>
       <c r="F48" t="n">
-        <v>4760153669</v>
+        <v>4552801754</v>
       </c>
       <c r="G48" t="n">
-        <v>1361.23</v>
+        <v>1444.34</v>
       </c>
       <c r="H48" t="n">
-        <v>296850842.5</v>
+        <v>296845729.98</v>
       </c>
       <c r="I48" t="n">
-        <v>84.89</v>
+        <v>94.17</v>
       </c>
       <c r="J48" t="n">
-        <v>6.24</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="49">
@@ -2093,28 +2093,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1128189</v>
+        <v>996565</v>
       </c>
       <c r="D49" t="n">
         <v>110968</v>
       </c>
       <c r="E49" t="n">
-        <v>9.84</v>
+        <v>11.14</v>
       </c>
       <c r="F49" t="n">
-        <v>1239628665</v>
+        <v>1160635404</v>
       </c>
       <c r="G49" t="n">
-        <v>1098.78</v>
+        <v>1164.64</v>
       </c>
       <c r="H49" t="n">
         <v>90789643.73999999</v>
       </c>
       <c r="I49" t="n">
-        <v>80.47</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="J49" t="n">
-        <v>7.32</v>
+        <v>7.82</v>
       </c>
     </row>
     <row r="50">
@@ -2127,28 +2127,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5270906</v>
+        <v>4853259</v>
       </c>
       <c r="D50" t="n">
-        <v>411236</v>
+        <v>411235</v>
       </c>
       <c r="E50" t="n">
-        <v>7.8</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="F50" t="n">
-        <v>8956256181</v>
+        <v>8681517663</v>
       </c>
       <c r="G50" t="n">
-        <v>1699.19</v>
+        <v>1788.8</v>
       </c>
       <c r="H50" t="n">
-        <v>530020219.7</v>
+        <v>530016733.44</v>
       </c>
       <c r="I50" t="n">
-        <v>100.56</v>
+        <v>109.21</v>
       </c>
       <c r="J50" t="n">
-        <v>5.92</v>
+        <v>6.11</v>
       </c>
     </row>
     <row r="51">
@@ -2161,28 +2161,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2318651</v>
+        <v>2163511</v>
       </c>
       <c r="D51" t="n">
-        <v>154340</v>
+        <v>154339</v>
       </c>
       <c r="E51" t="n">
-        <v>6.66</v>
+        <v>7.13</v>
       </c>
       <c r="F51" t="n">
-        <v>4195624342</v>
+        <v>4090231711</v>
       </c>
       <c r="G51" t="n">
-        <v>1809.51</v>
+        <v>1890.55</v>
       </c>
       <c r="H51" t="n">
-        <v>190702256.33</v>
+        <v>190699700.07</v>
       </c>
       <c r="I51" t="n">
-        <v>82.25</v>
+        <v>88.14</v>
       </c>
       <c r="J51" t="n">
-        <v>4.55</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="52">
@@ -2195,28 +2195,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1161412</v>
+        <v>1072761</v>
       </c>
       <c r="D52" t="n">
         <v>84181</v>
       </c>
       <c r="E52" t="n">
-        <v>7.25</v>
+        <v>7.85</v>
       </c>
       <c r="F52" t="n">
-        <v>1692080189</v>
+        <v>1636184662</v>
       </c>
       <c r="G52" t="n">
-        <v>1456.92</v>
+        <v>1525.21</v>
       </c>
       <c r="H52" t="n">
         <v>93685824.92</v>
       </c>
       <c r="I52" t="n">
-        <v>80.67</v>
+        <v>87.33</v>
       </c>
       <c r="J52" t="n">
-        <v>5.54</v>
+        <v>5.73</v>
       </c>
     </row>
     <row r="53">
@@ -2229,28 +2229,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3686256</v>
+        <v>3366271</v>
       </c>
       <c r="D53" t="n">
         <v>313350</v>
       </c>
       <c r="E53" t="n">
-        <v>8.5</v>
+        <v>9.31</v>
       </c>
       <c r="F53" t="n">
-        <v>5444777763</v>
+        <v>5248816163</v>
       </c>
       <c r="G53" t="n">
-        <v>1477.05</v>
+        <v>1559.24</v>
       </c>
       <c r="H53" t="n">
         <v>307562534.85</v>
       </c>
       <c r="I53" t="n">
-        <v>83.43000000000001</v>
+        <v>91.37</v>
       </c>
       <c r="J53" t="n">
-        <v>5.65</v>
+        <v>5.86</v>
       </c>
     </row>
     <row r="54">
@@ -2263,28 +2263,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1166116</v>
+        <v>1040927</v>
       </c>
       <c r="D54" t="n">
         <v>114742</v>
       </c>
       <c r="E54" t="n">
-        <v>9.84</v>
+        <v>11.02</v>
       </c>
       <c r="F54" t="n">
-        <v>1353371861</v>
+        <v>1274709542</v>
       </c>
       <c r="G54" t="n">
-        <v>1160.58</v>
+        <v>1224.59</v>
       </c>
       <c r="H54" t="n">
         <v>93032817.05</v>
       </c>
       <c r="I54" t="n">
-        <v>79.78</v>
+        <v>89.37</v>
       </c>
       <c r="J54" t="n">
-        <v>6.87</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="55">
@@ -2297,28 +2297,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5603904</v>
+        <v>5211229</v>
       </c>
       <c r="D55" t="n">
-        <v>427026</v>
+        <v>427025</v>
       </c>
       <c r="E55" t="n">
-        <v>7.62</v>
+        <v>8.19</v>
       </c>
       <c r="F55" t="n">
-        <v>10164674442</v>
+        <v>9901323747</v>
       </c>
       <c r="G55" t="n">
-        <v>1813.86</v>
+        <v>1900</v>
       </c>
       <c r="H55" t="n">
-        <v>552232993.65</v>
+        <v>552230235.6</v>
       </c>
       <c r="I55" t="n">
-        <v>98.54000000000001</v>
+        <v>105.97</v>
       </c>
       <c r="J55" t="n">
-        <v>5.43</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="56">
@@ -2331,28 +2331,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2506961</v>
+        <v>2361395</v>
       </c>
       <c r="D56" t="n">
-        <v>163878</v>
+        <v>163872</v>
       </c>
       <c r="E56" t="n">
-        <v>6.54</v>
+        <v>6.94</v>
       </c>
       <c r="F56" t="n">
-        <v>5015134303</v>
+        <v>4915346541</v>
       </c>
       <c r="G56" t="n">
-        <v>2000.48</v>
+        <v>2081.54</v>
       </c>
       <c r="H56" t="n">
-        <v>199641752.87</v>
+        <v>199626170.95</v>
       </c>
       <c r="I56" t="n">
-        <v>79.63</v>
+        <v>84.54000000000001</v>
       </c>
       <c r="J56" t="n">
-        <v>3.98</v>
+        <v>4.06</v>
       </c>
     </row>
   </sheetData>
